--- a/1.bead_calibration/beadcalruntimes_flowrates.xlsx
+++ b/1.bead_calibration/beadcalruntimes_flowrates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francois/Documents/DATA/SeaFlow/Calibration/bead_calibration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francois/Documents/DATA/Codes/seaflow-virtualcore/1.bead_calibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17500" yWindow="11260" windowWidth="30620" windowHeight="17580"/>
+    <workbookView xWindow="11460" yWindow="2200" windowWidth="30620" windowHeight="17580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="beadcalruntimes" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>2017-03-01_989_oligo_noise</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>volume (ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">based on calibration, FR = </t>
   </si>
 </sst>
 </file>
@@ -995,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1564,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1577,7 +1580,7 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12.961</v>
       </c>
@@ -1602,8 +1605,11 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12.964</v>
       </c>
@@ -1614,8 +1620,15 @@
         <f t="shared" ref="C3:C4" si="0">B3-A3</f>
         <v>16.167000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1">
+        <f>(-9*10^-5 * J2^4 + 0.0066 * J2^3 - 0.173 * J2^2 + 2.5013 * J2 + 2.1059)</f>
+        <v>16.748060000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12.962999999999999</v>
       </c>
@@ -1627,7 +1640,7 @@
         <v>16.054000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <f>AVERAGE(C2:C4)</f>
         <v>16.077666666666669</v>
@@ -1641,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1654,7 +1667,7 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1665,7 +1678,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>13.003</v>
       </c>
@@ -1679,8 +1692,11 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13.009</v>
       </c>
@@ -1691,8 +1707,15 @@
         <f t="shared" ref="C3:C4" si="0">B3-A3</f>
         <v>21.336999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1">
+        <f>(-9*10^-5 * J2^4 + 0.0066 * J2^3 - 0.173 * J2^2 + 2.5013 * J2 + 2.1059)</f>
+        <v>16.748060000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13.006</v>
       </c>
@@ -1704,7 +1727,7 @@
         <v>21.216000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <f>AVERAGE(C2:C4)</f>
         <v>21.299666666666663</v>
@@ -1718,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1731,7 +1754,7 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1742,7 +1765,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12.943</v>
       </c>
@@ -1756,8 +1779,11 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12.946999999999999</v>
       </c>
@@ -1768,8 +1794,15 @@
         <f t="shared" ref="C3:C4" si="0">B3-A3</f>
         <v>16.455000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1">
+        <f>(-9*10^-5 * J2^4 + 0.0066 * J2^3 - 0.173 * J2^2 + 2.5013 * J2 + 2.1059)</f>
+        <v>16.748060000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12.945</v>
       </c>
@@ -1781,7 +1814,7 @@
         <v>16.425999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <f>AVERAGE(C2:C4)</f>
         <v>16.490666666666669</v>
